--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H2">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I2">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J2">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N2">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O2">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P2">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q2">
-        <v>118.30913849863</v>
+        <v>84.19893029014999</v>
       </c>
       <c r="R2">
-        <v>1064.78224648767</v>
+        <v>757.7903726113499</v>
       </c>
       <c r="S2">
-        <v>0.0007022740204337471</v>
+        <v>0.0003650451613238246</v>
       </c>
       <c r="T2">
-        <v>0.0007022740204337472</v>
+        <v>0.0003650451613238247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H3">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I3">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J3">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.168486</v>
       </c>
       <c r="O3">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P3">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q3">
-        <v>224.4161599924767</v>
+        <v>196.8394969807</v>
       </c>
       <c r="R3">
-        <v>2019.74543993229</v>
+        <v>1771.5554728263</v>
       </c>
       <c r="S3">
-        <v>0.001332117205215256</v>
+        <v>0.0008533992733946421</v>
       </c>
       <c r="T3">
-        <v>0.001332117205215256</v>
+        <v>0.0008533992733946421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H4">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I4">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J4">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N4">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O4">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P4">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q4">
-        <v>256.451339845865</v>
+        <v>410.9281427840333</v>
       </c>
       <c r="R4">
-        <v>2308.062058612785</v>
+        <v>3698.3532850563</v>
       </c>
       <c r="S4">
-        <v>0.001522275588890898</v>
+        <v>0.001781582374718669</v>
       </c>
       <c r="T4">
-        <v>0.001522275588890899</v>
+        <v>0.001781582374718669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H5">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I5">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J5">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N5">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O5">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P5">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q5">
-        <v>197.7525944638884</v>
+        <v>109.54146761805</v>
       </c>
       <c r="R5">
-        <v>1779.773350174995</v>
+        <v>985.8732085624499</v>
       </c>
       <c r="S5">
-        <v>0.001173844314376166</v>
+        <v>0.0004749179423121189</v>
       </c>
       <c r="T5">
-        <v>0.001173844314376166</v>
+        <v>0.000474917942312119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.05583833333333</v>
+        <v>32.50235</v>
       </c>
       <c r="H6">
-        <v>111.167515</v>
+        <v>97.50704999999999</v>
       </c>
       <c r="I6">
-        <v>0.008431126118266585</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="J6">
-        <v>0.008431126118266586</v>
+        <v>0.004318312013857221</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N6">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O6">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P6">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q6">
-        <v>623.4269794499402</v>
+        <v>194.5255788453833</v>
       </c>
       <c r="R6">
-        <v>5610.842815049461</v>
+        <v>1750.73020960845</v>
       </c>
       <c r="S6">
-        <v>0.003700614989350517</v>
+        <v>0.0008433672621079664</v>
       </c>
       <c r="T6">
-        <v>0.003700614989350517</v>
+        <v>0.0008433672621079667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>152.697487</v>
       </c>
       <c r="I7">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J7">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N7">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O7">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P7">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q7">
-        <v>162.507078959854</v>
+        <v>131.8567740834543</v>
       </c>
       <c r="R7">
-        <v>1462.563710638686</v>
+        <v>1186.710966751089</v>
       </c>
       <c r="S7">
-        <v>0.0009646296231918094</v>
+        <v>0.000571666138762865</v>
       </c>
       <c r="T7">
-        <v>0.0009646296231918094</v>
+        <v>0.0005716661387628651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>152.697487</v>
       </c>
       <c r="I8">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J8">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>18.168486</v>
       </c>
       <c r="O8">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P8">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q8">
         <v>308.2535727549647</v>
@@ -948,10 +948,10 @@
         <v>2774.282154794682</v>
       </c>
       <c r="S8">
-        <v>0.001829769691495154</v>
+        <v>0.00133643592391512</v>
       </c>
       <c r="T8">
-        <v>0.001829769691495154</v>
+        <v>0.00133643592391512</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>152.697487</v>
       </c>
       <c r="I9">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J9">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N9">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O9">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P9">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q9">
-        <v>352.256458482917</v>
+        <v>643.5195684896535</v>
       </c>
       <c r="R9">
-        <v>3170.308126346253</v>
+        <v>5791.676116406881</v>
       </c>
       <c r="S9">
-        <v>0.002090967464237059</v>
+        <v>0.002789984431926031</v>
       </c>
       <c r="T9">
-        <v>0.002090967464237059</v>
+        <v>0.002789984431926031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>152.697487</v>
       </c>
       <c r="I10">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J10">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N10">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O10">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P10">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q10">
-        <v>271.6290295988524</v>
+        <v>171.543563543027</v>
       </c>
       <c r="R10">
-        <v>2444.661266389671</v>
+        <v>1543.892071887243</v>
       </c>
       <c r="S10">
-        <v>0.001612369197372799</v>
+        <v>0.0007437285439593498</v>
       </c>
       <c r="T10">
-        <v>0.001612369197372798</v>
+        <v>0.0007437285439593499</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>152.697487</v>
       </c>
       <c r="I11">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="J11">
-        <v>0.01158082710438721</v>
+        <v>0.006762540683959845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N11">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O11">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P11">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q11">
-        <v>856.3268963060522</v>
+        <v>304.6299426237426</v>
       </c>
       <c r="R11">
-        <v>7706.942066754469</v>
+        <v>2741.669483613683</v>
       </c>
       <c r="S11">
-        <v>0.005083091128090393</v>
+        <v>0.00132072564539648</v>
       </c>
       <c r="T11">
-        <v>0.005083091128090392</v>
+        <v>0.00132072564539648</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H12">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I12">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J12">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N12">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O12">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P12">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q12">
-        <v>6409.225960493814</v>
+        <v>8482.448276451847</v>
       </c>
       <c r="R12">
-        <v>57683.03364444432</v>
+        <v>76342.03448806662</v>
       </c>
       <c r="S12">
-        <v>0.03804467634760485</v>
+        <v>0.03677572492700188</v>
       </c>
       <c r="T12">
-        <v>0.03804467634760485</v>
+        <v>0.03677572492700188</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H13">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I13">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J13">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>18.168486</v>
       </c>
       <c r="O13">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P13">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q13">
-        <v>12157.41993248282</v>
+        <v>19830.19078921618</v>
       </c>
       <c r="R13">
-        <v>109416.7793923454</v>
+        <v>178471.7171029456</v>
       </c>
       <c r="S13">
-        <v>0.07216551724096065</v>
+        <v>0.08597395680427647</v>
       </c>
       <c r="T13">
-        <v>0.07216551724096065</v>
+        <v>0.08597395680427646</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H14">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I14">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J14">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N14">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O14">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P14">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q14">
-        <v>13892.8793312325</v>
+        <v>41398.11164455795</v>
       </c>
       <c r="R14">
-        <v>125035.9139810925</v>
+        <v>372583.0048010215</v>
       </c>
       <c r="S14">
-        <v>0.08246707183535561</v>
+        <v>0.1794818567375227</v>
       </c>
       <c r="T14">
-        <v>0.08246707183535561</v>
+        <v>0.1794818567375227</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H15">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I15">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J15">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N15">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O15">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P15">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q15">
-        <v>10712.95994778658</v>
+        <v>11035.53014266066</v>
       </c>
       <c r="R15">
-        <v>96416.63953007922</v>
+        <v>99319.77128394594</v>
       </c>
       <c r="S15">
-        <v>0.06359131296831232</v>
+        <v>0.04784463255458675</v>
       </c>
       <c r="T15">
-        <v>0.0635913129683123</v>
+        <v>0.04784463255458675</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2007.446289</v>
+        <v>3274.382486666667</v>
       </c>
       <c r="H16">
-        <v>6022.338867</v>
+        <v>9823.14746</v>
       </c>
       <c r="I16">
-        <v>0.4567440273772037</v>
+        <v>0.4350394734576531</v>
       </c>
       <c r="J16">
-        <v>0.4567440273772037</v>
+        <v>0.435039473457653</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N16">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O16">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P16">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q16">
-        <v>33773.25227678054</v>
+        <v>19597.07985976457</v>
       </c>
       <c r="R16">
-        <v>303959.2704910248</v>
+        <v>176373.7187378811</v>
       </c>
       <c r="S16">
-        <v>0.2004754489849702</v>
+        <v>0.08496330243426528</v>
       </c>
       <c r="T16">
-        <v>0.2004754489849702</v>
+        <v>0.08496330243426528</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H17">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I17">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J17">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N17">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O17">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P17">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q17">
-        <v>20.588624590262</v>
+        <v>18.85618477502933</v>
       </c>
       <c r="R17">
-        <v>185.297621312358</v>
+        <v>169.705662975264</v>
       </c>
       <c r="S17">
-        <v>0.0001222125048807775</v>
+        <v>8.175114564320869E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001222125048807775</v>
+        <v>8.17511456432087E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H18">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I18">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J18">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>18.168486</v>
       </c>
       <c r="O18">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P18">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q18">
-        <v>39.05378847912733</v>
+        <v>44.08181806231467</v>
       </c>
       <c r="R18">
-        <v>351.484096312146</v>
+        <v>396.736362560832</v>
       </c>
       <c r="S18">
-        <v>0.000231820309034906</v>
+        <v>0.0001911170881928372</v>
       </c>
       <c r="T18">
-        <v>0.000231820309034906</v>
+        <v>0.0001911170881928372</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H19">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I19">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J19">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N19">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O19">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P19">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q19">
-        <v>44.628677283601</v>
+        <v>92.02654906533688</v>
       </c>
       <c r="R19">
-        <v>401.658095552409</v>
+        <v>828.2389415880319</v>
       </c>
       <c r="S19">
-        <v>0.0002649124236751808</v>
+        <v>0.0003989818675114539</v>
       </c>
       <c r="T19">
-        <v>0.0002649124236751808</v>
+        <v>0.0003989818675114539</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H20">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I20">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J20">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N20">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O20">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P20">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q20">
-        <v>34.41368926217367</v>
+        <v>24.531596147552</v>
       </c>
       <c r="R20">
-        <v>309.7232033595629</v>
+        <v>220.784365327968</v>
       </c>
       <c r="S20">
-        <v>0.000204277034071922</v>
+        <v>0.0001063569387681597</v>
       </c>
       <c r="T20">
-        <v>0.0002042770340719219</v>
+        <v>0.0001063569387681598</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.448603666666666</v>
+        <v>7.278837333333333</v>
       </c>
       <c r="H21">
-        <v>19.345811</v>
+        <v>21.836512</v>
       </c>
       <c r="I21">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="J21">
-        <v>0.00146721794043115</v>
+        <v>0.0009670774791190726</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N21">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O21">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P21">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q21">
-        <v>108.491230704756</v>
+        <v>43.56362064860089</v>
       </c>
       <c r="R21">
-        <v>976.421076342804</v>
+        <v>392.072585837408</v>
       </c>
       <c r="S21">
-        <v>0.0006439956687683638</v>
+        <v>0.0001888704390034131</v>
       </c>
       <c r="T21">
-        <v>0.0006439956687683637</v>
+        <v>0.0001888704390034132</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H22">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I22">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J22">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N22">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O22">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P22">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q22">
-        <v>7321.793435816955</v>
+        <v>10780.75160121033</v>
       </c>
       <c r="R22">
-        <v>65896.14092235258</v>
+        <v>97026.76441089301</v>
       </c>
       <c r="S22">
-        <v>0.04346160726219922</v>
+        <v>0.04674003807286251</v>
       </c>
       <c r="T22">
-        <v>0.04346160726219922</v>
+        <v>0.04674003807286252</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H23">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I23">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J23">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>18.168486</v>
       </c>
       <c r="O23">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P23">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q23">
-        <v>13888.43489163933</v>
+        <v>25203.14349533214</v>
       </c>
       <c r="R23">
-        <v>124995.914024754</v>
+        <v>226828.2914579893</v>
       </c>
       <c r="S23">
-        <v>0.08244068998099273</v>
+        <v>0.1092684378698968</v>
       </c>
       <c r="T23">
-        <v>0.08244068998099273</v>
+        <v>0.1092684378698968</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H24">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I24">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J24">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N24">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O24">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P24">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q24">
-        <v>15870.99492497497</v>
+        <v>52614.85173309396</v>
       </c>
       <c r="R24">
-        <v>142838.9543247747</v>
+        <v>473533.6655978456</v>
       </c>
       <c r="S24">
-        <v>0.09420901509121238</v>
+        <v>0.2281121265169245</v>
       </c>
       <c r="T24">
-        <v>0.09420901509121238</v>
+        <v>0.2281121265169245</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H25">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I25">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J25">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N25">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O25">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P25">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q25">
-        <v>12238.30776249154</v>
+        <v>14025.58617256417</v>
       </c>
       <c r="R25">
-        <v>110144.7698624238</v>
+        <v>126230.2755530776</v>
       </c>
       <c r="S25">
-        <v>0.0726456612290351</v>
+        <v>0.06080804529679224</v>
       </c>
       <c r="T25">
-        <v>0.07264566122903508</v>
+        <v>0.06080804529679225</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2293.273345666667</v>
+        <v>4161.570231333333</v>
       </c>
       <c r="H26">
-        <v>6879.820037</v>
+        <v>12484.710694</v>
       </c>
       <c r="I26">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="J26">
-        <v>0.5217768014597114</v>
+        <v>0.5529125963654108</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N26">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O26">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P26">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q26">
-        <v>38582.00324821586</v>
+        <v>24906.87160023299</v>
       </c>
       <c r="R26">
-        <v>347238.0292339427</v>
+        <v>224161.8444020968</v>
       </c>
       <c r="S26">
-        <v>0.229019827896272</v>
+        <v>0.1079839486089347</v>
       </c>
       <c r="T26">
-        <v>0.2290198278962719</v>
+        <v>0.1079839486089348</v>
       </c>
     </row>
   </sheetData>
